--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -508,8 +511,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>01</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -449,7 +449,7 @@
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01</v>
+        <v>012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -512,7 +517,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012</v>
+        <v>0120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -456,6 +456,9 @@
       <c r="C3" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0120</v>
+        <v>0121</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,12 +457,17 @@
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121</v>
+        <v>012130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -464,6 +464,9 @@
       <c r="C4" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -525,7 +528,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012130</v>
+        <v>012131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,12 +465,17 @@
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -528,7 +533,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131</v>
+        <v>01213140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -472,6 +472,9 @@
       <c r="A5" t="str">
         <v>2</v>
       </c>
+      <c r="C5" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -475,6 +475,9 @@
       <c r="C5" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -536,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213140</v>
+        <v>01213141</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,12 +476,17 @@
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -539,7 +544,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213141</v>
+        <v>0121314140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -483,6 +483,9 @@
       <c r="C6" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -544,7 +547,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121314140</v>
+        <v>0121314141</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -484,7 +484,7 @@
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +547,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121314141</v>
+        <v>01213141413</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,9 +487,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+      <c r="F7" t="str">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -547,7 +555,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213141413</v>
+        <v>0121314141314</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-26.xlsx
+++ b/DateBase/orders/name001_2024-9-26.xlsx
@@ -448,24 +448,69 @@
       <c r="C2" t="str">
         <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E2" t="str">
+        <v>12</v>
+      </c>
       <c r="F2" t="str">
         <v>12</v>
+      </c>
+      <c r="G2" t="str">
+        <v>12.21</v>
+      </c>
+      <c r="H2" t="str">
+        <v>13.12</v>
+      </c>
+      <c r="K2">
+        <v>18.04475</v>
+      </c>
+      <c r="L2">
+        <v>216.537</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E3" t="str">
+        <v>12</v>
+      </c>
       <c r="F3" t="str">
         <v>13</v>
+      </c>
+      <c r="G3" t="str">
+        <v>21</v>
+      </c>
+      <c r="H3" t="str">
+        <v>32.21</v>
+      </c>
+      <c r="K3">
+        <v>37.134750000000004</v>
+      </c>
+      <c r="L3">
+        <v>482.7517500000001</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E4" t="str">
+        <v>21</v>
+      </c>
       <c r="F4" t="str">
         <v>14</v>
+      </c>
+      <c r="G4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H4" t="str">
+        <v>32.12</v>
+      </c>
+      <c r="K4">
+        <v>37.04475</v>
+      </c>
+      <c r="L4">
+        <v>518.6265</v>
       </c>
     </row>
     <row r="5">
@@ -475,24 +520,69 @@
       <c r="C5" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E5" t="str">
+        <v>32</v>
+      </c>
       <c r="F5" t="str">
         <v>14</v>
+      </c>
+      <c r="G5" t="str">
+        <v>23</v>
+      </c>
+      <c r="H5" t="str">
+        <v>23.12</v>
+      </c>
+      <c r="K5">
+        <v>28.04475</v>
+      </c>
+      <c r="L5">
+        <v>392.6265</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E6" t="str">
+        <v>12</v>
+      </c>
       <c r="F6" t="str">
         <v>13</v>
+      </c>
+      <c r="G6" t="str">
+        <v>12</v>
+      </c>
+      <c r="H6" t="str">
+        <v>34.21</v>
+      </c>
+      <c r="K6">
+        <v>39.134750000000004</v>
+      </c>
+      <c r="L6">
+        <v>508.7517500000001</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="E7" t="str">
+        <v>11</v>
+      </c>
       <c r="F7" t="str">
         <v>14</v>
+      </c>
+      <c r="G7" t="str">
+        <v>23</v>
+      </c>
+      <c r="H7" t="str">
+        <v>24.21</v>
+      </c>
+      <c r="K7">
+        <v>29.13475</v>
+      </c>
+      <c r="L7">
+        <v>407.8865</v>
       </c>
     </row>
   </sheetData>
@@ -537,25 +627,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>123.21</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>123.12</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>123.12</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>12.32</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>12.21</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>393.98</v>
       </c>
       <c r="G2" t="str">
         <v>0121314141314</v>
+      </c>
+      <c r="H2" t="str">
+        <v>USD</v>
       </c>
     </row>
   </sheetData>
